--- a/Working code/Logs/fitness1_test_log.xlsx
+++ b/Working code/Logs/fitness1_test_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,386 @@
         <v>70</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:32:18</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>61.72839506172841</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62.96296296296296</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.23809523809524</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.66666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:33:21</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>46.29629629629629</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81.48148148148148</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.13333333333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:34:29</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C10" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.22222222222222</v>
+      </c>
+      <c r="E10" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:35:36</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C11" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D11" t="n">
+        <v>57.83333333333334</v>
+      </c>
+      <c r="E11" t="n">
+        <v>64.66666666666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:36:27</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.41975308641975</v>
+      </c>
+      <c r="C12" t="n">
+        <v>86.41975308641975</v>
+      </c>
+      <c r="D12" t="n">
+        <v>36.00000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>84.66666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:37:34</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.04938271604939</v>
+      </c>
+      <c r="C13" t="n">
+        <v>90.12345679012346</v>
+      </c>
+      <c r="D13" t="n">
+        <v>38.53333333333334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:38:23</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C14" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D14" t="n">
+        <v>47.33333333333334</v>
+      </c>
+      <c r="E14" t="n">
+        <v>68.66666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:39:07</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="C15" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47.33333333333334</v>
+      </c>
+      <c r="E15" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:39:55</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>62.34567901234568</v>
+      </c>
+      <c r="C16" t="n">
+        <v>72.83950617283951</v>
+      </c>
+      <c r="D16" t="n">
+        <v>37.33333333333333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>92.66666666666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:00</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="C17" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32.93333333333333</v>
+      </c>
+      <c r="E17" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:58</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="C18" t="n">
+        <v>79.01234567901234</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35.16666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>82.66666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:42:38</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>77.77777777777777</v>
+      </c>
+      <c r="C19" t="n">
+        <v>79.01234567901234</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.33333333333333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>77.33333333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:43:37</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C20" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64.66666666666666</v>
+      </c>
+      <c r="E20" t="n">
+        <v>68.66666666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:44:23</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C21" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D21" t="n">
+        <v>78</v>
+      </c>
+      <c r="E21" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:45:25</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>59.87654320987654</v>
+      </c>
+      <c r="C22" t="n">
+        <v>83.95061728395061</v>
+      </c>
+      <c r="D22" t="n">
+        <v>29</v>
+      </c>
+      <c r="E22" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:12</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>56.79012345679012</v>
+      </c>
+      <c r="C23" t="n">
+        <v>72.83950617283951</v>
+      </c>
+      <c r="D23" t="n">
+        <v>45.33333333333333</v>
+      </c>
+      <c r="E23" t="n">
+        <v>84.66666666666667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:56</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="C24" t="n">
+        <v>81.48148148148148</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55.77777777777778</v>
+      </c>
+      <c r="E24" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:47:28</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="C25" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="D25" t="n">
+        <v>49.66666666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>93.33333333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:48:32</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>45.06172839506173</v>
+      </c>
+      <c r="C26" t="n">
+        <v>82.71604938271605</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>54.66666666666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:49:31</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>60.49382716049383</v>
+      </c>
+      <c r="C27" t="n">
+        <v>61.72839506172839</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36.33333333333334</v>
+      </c>
+      <c r="E27" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Working code/Logs/fitness1_test_log.xlsx
+++ b/Working code/Logs/fitness1_test_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +942,101 @@
         <v>70</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:14:24</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>91.35802469135803</v>
+      </c>
+      <c r="C28" t="n">
+        <v>91.35802469135803</v>
+      </c>
+      <c r="D28" t="n">
+        <v>81.66666666666667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>84.66666666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:17:25</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C29" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:01:31</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="C30" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>85.33333333333334</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:11:37</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>83.95061728395061</v>
+      </c>
+      <c r="C31" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="D31" t="n">
+        <v>26.91666666666667</v>
+      </c>
+      <c r="E31" t="n">
+        <v>68.66666666666667</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:29:52</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>82.71604938271605</v>
+      </c>
+      <c r="C32" t="n">
+        <v>82.71604938271605</v>
+      </c>
+      <c r="D32" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>81.33333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Working code/Logs/fitness1_test_log.xlsx
+++ b/Working code/Logs/fitness1_test_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,82 @@
         <v>81.33333333333333</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:40:15</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>85.18518518518519</v>
+      </c>
+      <c r="C33" t="n">
+        <v>85.18518518518519</v>
+      </c>
+      <c r="D33" t="n">
+        <v>36.13333333333334</v>
+      </c>
+      <c r="E33" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:43:08</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>91.35802469135803</v>
+      </c>
+      <c r="C34" t="n">
+        <v>91.35802469135803</v>
+      </c>
+      <c r="D34" t="n">
+        <v>49.66666666666667</v>
+      </c>
+      <c r="E34" t="n">
+        <v>93.33333333333333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:07:14</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="C35" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="D35" t="n">
+        <v>75.66666666666667</v>
+      </c>
+      <c r="E35" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:13:41</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>90.12345679012346</v>
+      </c>
+      <c r="C36" t="n">
+        <v>90.12345679012346</v>
+      </c>
+      <c r="D36" t="n">
+        <v>98</v>
+      </c>
+      <c r="E36" t="n">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Working code/Logs/fitness1_test_log.xlsx
+++ b/Working code/Logs/fitness1_test_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,101 @@
         <v>98</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:18:17</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C37" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D37" t="n">
+        <v>54.33333333333334</v>
+      </c>
+      <c r="E37" t="n">
+        <v>73.33333333333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:19:00</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>44.8559670781893</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58.0246913580247</v>
+      </c>
+      <c r="D38" t="n">
+        <v>77.33333333333333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:19:41</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>68.5185185185185</v>
+      </c>
+      <c r="C39" t="n">
+        <v>72.83950617283951</v>
+      </c>
+      <c r="D39" t="n">
+        <v>70.66666666666667</v>
+      </c>
+      <c r="E39" t="n">
+        <v>73.33333333333333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:20:27</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>85.18518518518519</v>
+      </c>
+      <c r="C40" t="n">
+        <v>85.18518518518519</v>
+      </c>
+      <c r="D40" t="n">
+        <v>60.22222222222222</v>
+      </c>
+      <c r="E40" t="n">
+        <v>87.33333333333333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:21:05</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>72.22222222222221</v>
+      </c>
+      <c r="C41" t="n">
+        <v>81.48148148148148</v>
+      </c>
+      <c r="D41" t="n">
+        <v>84.66666666666667</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.66666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Working code/Logs/fitness1_test_log.xlsx
+++ b/Working code/Logs/fitness1_test_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,6 +1208,25 @@
         <v>96.66666666666667</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-03-05 01:08:17</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>61.72839506172839</v>
+      </c>
+      <c r="C42" t="n">
+        <v>64.19753086419753</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
